--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T18:15:49+00:00</t>
+    <t>2022-08-08T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:54:31+00:00</t>
+    <t>2022-08-08T14:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:01+00:00</t>
+    <t>2022-08-08T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:43+00:00</t>
+    <t>2022-08-08T14:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:58:25+00:00</t>
+    <t>2022-09-20T21:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:17:20+00:00</t>
+    <t>2022-09-20T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:19:27+00:00</t>
+    <t>2022-09-20T21:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:37:06+00:00</t>
+    <t>2022-10-08T01:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T01:52:10+00:00</t>
+    <t>2022-10-08T02:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:01:28+00:00</t>
+    <t>2022-10-08T02:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:22+00:00</t>
+    <t>2022-10-08T02:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:45+00:00</t>
+    <t>2022-10-08T02:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:04:28+00:00</t>
+    <t>2022-10-08T02:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:06:31+00:00</t>
+    <t>2022-10-08T02:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:08:40+00:00</t>
+    <t>2022-10-08T02:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:09:14+00:00</t>
+    <t>2022-10-08T02:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:10:18+00:00</t>
+    <t>2022-10-08T02:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:12:18+00:00</t>
+    <t>2022-10-08T02:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:13:28+00:00</t>
+    <t>2022-10-08T02:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:14:23+00:00</t>
+    <t>2022-11-29T17:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:06:49+00:00</t>
+    <t>2023-03-09T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T17:04:20+00:00</t>
+    <t>2023-03-15T20:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:21:30+00:00</t>
+    <t>2023-03-15T20:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-15T20:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:19+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
+++ b/ValueSet-OpenMRS-diagnostic-report-status-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
